--- a/DateBase/orders/Dang Nguyen48_2026-1-22.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-22.xlsx
@@ -521,7 +521,7 @@
     </row>
     <row r="11">
       <c r="C11" t="str">
-        <v>347_金边万年青_undefined_undefined_1bunch</v>
+        <v>348_万年青_undefined_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-1-22.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-22.xlsx
@@ -523,6 +523,9 @@
       <c r="C11" t="str">
         <v>348_万年青_undefined_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -584,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0351535102548123450</v>
+        <v>03515351025481234546</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-1-22.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-22.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,9 +527,95 @@
         <v>46</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>756_雪花松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>3</v>
+      </c>
+      <c r="C13" t="str">
+        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F14" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>4</v>
+      </c>
+      <c r="C15" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F16" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>5</v>
+      </c>
+      <c r="C17" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F19" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F20" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +673,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>03515351025481234546</v>
+        <v>0351535102548123454619341035202041550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-1-22.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-22.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -612,10 +612,96 @@
       <c r="C21" t="str">
         <v>439_九星叶_undefined_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>6</v>
+      </c>
+      <c r="C23" t="str">
+        <v>883_山茶叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>449_柔丽思 绿_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>791_菟葵黑_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>842_蝴蝶洋牡丹鲑鱼粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>7</v>
+      </c>
+      <c r="C29" t="str">
+        <v>128_绣球重瓣秋红_Hydrangea Peacoke_Hydrangea L._1stem</v>
+      </c>
+      <c r="F29" t="str">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>100_绣球白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F30" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -673,7 +759,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0351535102548123454619341035202041550</v>
+        <v>03515351025481234546193410352020415530103115653025129400</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-1-22.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-22.xlsx
@@ -698,6 +698,9 @@
       <c r="C31" t="str">
         <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -759,7 +762,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>03515351025481234546193410352020415530103115653025129400</v>
+        <v>03515351025481234546193410352020415530103115653025129403</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-1-22.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-22.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -699,12 +699,98 @@
         <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
       </c>
       <c r="F31" t="str">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>468_水仙百合_Alstroemeria_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
         <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>744_永生吊米深红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>8</v>
+      </c>
+      <c r="C35" t="str">
+        <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>587_洋牡丹橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>9</v>
+      </c>
+      <c r="C39" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>10</v>
+      </c>
+      <c r="C40" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -762,7 +848,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>03515351025481234546193410352020415530103115653025129403</v>
+        <v>0351535102548123454619341035202041553010311565302512940322035205222240400</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-1-22.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-22.xlsx
@@ -785,7 +785,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-1-22.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-22.xlsx
@@ -787,6 +787,9 @@
       <c r="A41" t="str">
         <v>11</v>
       </c>
+      <c r="C41" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen48_2026-1-22.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-22.xlsx
@@ -790,6 +790,9 @@
       <c r="C41" t="str">
         <v>653_大丽花 黑_undefined_undefined_5stems</v>
       </c>
+      <c r="F41" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -851,7 +854,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0351535102548123454619341035202041553010311565302512940322035205222240400</v>
+        <v>0351535102548123454619341035202041553010311565302512940322035205222240401</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-1-22.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-22.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -791,12 +791,63 @@
         <v>653_大丽花 黑_undefined_undefined_5stems</v>
       </c>
       <c r="F41" t="str">
-        <v>1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>667_大丽花 安吉丽娜_undefined_undefined_5stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>682_锦鲤粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>12</v>
+      </c>
+      <c r="C46" t="str">
+        <v>544_空气草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>470_海芋白_Calla Lily_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L47"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -854,7 +905,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0351535102548123454619341035202041553010311565302512940322035205222240401</v>
+        <v>0351535102548123454619341035202041553010311565302512940322035205222240401010555162</v>
       </c>
     </row>
   </sheetData>
